--- a/data/HR1/Location1/Location1_base.xlsx
+++ b/data/HR1/Location1/Location1_base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Location1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A5B03A-06A7-4141-A046-BD0486B4D511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C67E22D-66A2-42CE-BBE4-9796DB4B0B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="733" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" tabRatio="733" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="12" r:id="rId1"/>
@@ -383,8 +383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C63F78E-2CEB-4DBA-B416-5BAEA0573409}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,7 +406,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9358,7 +9358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D8C7B0-D035-4049-8499-4E2BA5D2EBFA}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
